--- a/results_final/ci_ML.xlsx
+++ b/results_final/ci_ML.xlsx
@@ -519,91 +519,91 @@
         <v>0.236257522822892</v>
       </c>
       <c r="D2">
-        <v>0.235366436255127</v>
+        <v>0.2353808692170102</v>
       </c>
       <c r="E2">
-        <v>0.2344911155968243</v>
+        <v>0.2345336233158151</v>
       </c>
       <c r="F2">
-        <v>0.2336312367320678</v>
+        <v>0.2337147086699072</v>
       </c>
       <c r="G2">
-        <v>0.2327864834922136</v>
+        <v>0.2329230935552905</v>
       </c>
       <c r="H2">
-        <v>0.2319565474252166</v>
+        <v>0.2321577888095908</v>
       </c>
       <c r="I2">
-        <v>0.2311411275726727</v>
+        <v>0.2314178457898681</v>
       </c>
       <c r="J2">
-        <v>0.2303399302542831</v>
+        <v>0.2307023544442605</v>
       </c>
       <c r="K2">
-        <v>0.2295526688594669</v>
+        <v>0.2300104414902487</v>
       </c>
       <c r="L2">
-        <v>0.228779063645853</v>
+        <v>0.2293412686928342</v>
       </c>
       <c r="M2">
-        <v>0.228018841544398</v>
+        <v>0.2286940312363973</v>
       </c>
       <c r="N2">
-        <v>0.2272717359708839</v>
+        <v>0.2280679561844266</v>
       </c>
       <c r="O2">
-        <v>0.2265374866435619</v>
+        <v>0.2274623010217193</v>
       </c>
       <c r="P2">
-        <v>0.2258158394067163</v>
+        <v>0.2268763522740143</v>
       </c>
       <c r="Q2">
-        <v>0.2251065460599329</v>
+        <v>0.2263094242003667</v>
       </c>
       <c r="R2">
-        <v>0.2244093641928638</v>
+        <v>0.2257608575538867</v>
       </c>
       <c r="S2">
-        <v>0.2237240570252903</v>
+        <v>0.2252300184067607</v>
       </c>
       <c r="T2">
-        <v>0.2230503932522924</v>
+        <v>0.2247162970357427</v>
       </c>
       <c r="U2">
-        <v>0.222388146894341</v>
+        <v>0.2242191068645566</v>
       </c>
       <c r="V2">
-        <v>0.2217370971521371</v>
+        <v>0.2237378834598853</v>
       </c>
       <c r="W2">
-        <v>0.2210970282660288</v>
+        <v>0.223272083577837</v>
       </c>
       <c r="X2">
-        <v>0.2204677293798426</v>
+        <v>0.222821184257982</v>
       </c>
       <c r="Y2">
-        <v>0.2198489944089742</v>
+        <v>0.2223846819622407</v>
       </c>
       <c r="Z2">
-        <v>0.2192406219125877</v>
+        <v>0.2219620917560774</v>
       </c>
       <c r="AA2">
-        <v>0.2186424149697787</v>
+        <v>0.2215529465296144</v>
       </c>
       <c r="AB2">
-        <v>0.2180541810595638</v>
+        <v>0.221156796256435</v>
       </c>
       <c r="AC2">
-        <v>0.217475731944562</v>
+        <v>0.2207732072879802</v>
       </c>
       <c r="AD2">
-        <v>0.2169068835582408</v>
+        <v>0.2204017616815782</v>
       </c>
       <c r="AE2">
-        <v>0.216347455895603</v>
+        <v>0.2200420565602632</v>
       </c>
       <c r="AF2">
-        <v>0.2157972729071963</v>
+        <v>0.2196937035026567</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -617,91 +617,91 @@
         <v>0.2093131140741206</v>
       </c>
       <c r="D3">
-        <v>0.2046593042191722</v>
+        <v>0.2047339902384917</v>
       </c>
       <c r="E3">
-        <v>0.200171967032248</v>
+        <v>0.2003879753606216</v>
       </c>
       <c r="F3">
-        <v>0.1958437948111905</v>
+        <v>0.1962605053014513</v>
       </c>
       <c r="G3">
-        <v>0.1916678550926285</v>
+        <v>0.1923381038670189</v>
       </c>
       <c r="H3">
-        <v>0.1876375688433563</v>
+        <v>0.1886082890589847</v>
       </c>
       <c r="I3">
-        <v>0.1837466900560212</v>
+        <v>0.185059488389069</v>
       </c>
       <c r="J3">
-        <v>0.1799892866504082</v>
+        <v>0.181680962292357</v>
       </c>
       <c r="K3">
-        <v>0.1763597225891008</v>
+        <v>0.1784627347860994</v>
       </c>
       <c r="L3">
-        <v>0.1728526411231807</v>
+        <v>0.1753955306184116</v>
       </c>
       <c r="M3">
-        <v>0.1694629490899542</v>
+        <v>0.1724707182369822</v>
       </c>
       <c r="N3">
-        <v>0.1661858021905154</v>
+        <v>0.1696802579831495</v>
       </c>
       <c r="O3">
-        <v>0.163016591180305</v>
+        <v>0.1670166549828396</v>
       </c>
       <c r="P3">
-        <v>0.1599509289107566</v>
+        <v>0.1644729162640746</v>
       </c>
       <c r="Q3">
-        <v>0.1569846381646577</v>
+        <v>0.1620425116820582</v>
       </c>
       <c r="R3">
-        <v>0.1541137402320372</v>
+        <v>0.1597193382781155</v>
       </c>
       <c r="S3">
-        <v>0.1513344441772464</v>
+        <v>0.1574976877387524</v>
       </c>
       <c r="T3">
-        <v>0.1486431367514536</v>
+        <v>0.1553722166564772</v>
       </c>
       <c r="U3">
-        <v>0.1460363729080583</v>
+        <v>0.1533379193253536</v>
       </c>
       <c r="V3">
-        <v>0.1435108668815551</v>
+        <v>0.1513901028320295</v>
       </c>
       <c r="W3">
-        <v>0.1410634837931768</v>
+        <v>0.1495243642276429</v>
       </c>
       <c r="X3">
-        <v>0.1386912317492311</v>
+        <v>0.1477365695879177</v>
       </c>
       <c r="Y3">
-        <v>0.1363912544004323</v>
+        <v>0.1460228347882534</v>
       </c>
       <c r="Z3">
-        <v>0.1341608239327408</v>
+        <v>0.1443795078379771</v>
       </c>
       <c r="AA3">
-        <v>0.1319973344622654</v>
+        <v>0.1428031526334039</v>
       </c>
       <c r="AB3">
-        <v>0.1298982958086764</v>
+        <v>0.1412905340031696</v>
       </c>
       <c r="AC3">
-        <v>0.1278613276233294</v>
+        <v>0.1398386039316442</v>
       </c>
       <c r="AD3">
-        <v>0.1258841538499198</v>
+        <v>0.138444488857278</v>
       </c>
       <c r="AE3">
-        <v>0.123964597496997</v>
+        <v>0.1371054779526148</v>
       </c>
       <c r="AF3">
-        <v>0.1221005757030554</v>
+        <v>0.1358190123015708</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.2083631273380663</v>
       </c>
       <c r="D4">
-        <v>0.2044143762352802</v>
+        <v>0.2044778521413778</v>
       </c>
       <c r="E4">
-        <v>0.2005941839272819</v>
+        <v>0.2007783680226081</v>
       </c>
       <c r="F4">
-        <v>0.1968973817251352</v>
+        <v>0.1972538305636888</v>
       </c>
       <c r="G4">
-        <v>0.1933190458043777</v>
+        <v>0.1938941543279754</v>
       </c>
       <c r="H4">
-        <v>0.1898544840038103</v>
+        <v>0.1906899512951862</v>
       </c>
       <c r="I4">
-        <v>0.1864992234159637</v>
+        <v>0.187632474919315</v>
       </c>
       <c r="J4">
-        <v>0.1832489987172494</v>
+        <v>0.1847135692425109</v>
       </c>
       <c r="K4">
-        <v>0.1800997411895008</v>
+        <v>0.1819256225601941</v>
       </c>
       <c r="L4">
-        <v>0.1770475683880234</v>
+        <v>0.179261525187569</v>
       </c>
       <c r="M4">
-        <v>0.1740887744144288</v>
+        <v>0.1767146309261649</v>
       </c>
       <c r="N4">
-        <v>0.1712198207554433</v>
+        <v>0.1742787218718523</v>
       </c>
       <c r="O4">
-        <v>0.1684373276515811</v>
+        <v>0.171947976243691</v>
       </c>
       <c r="P4">
-        <v>0.1657380659620684</v>
+        <v>0.1697169389465298</v>
       </c>
       <c r="Q4">
-        <v>0.1631189494947164</v>
+        <v>0.1675804946100619</v>
       </c>
       <c r="R4">
-        <v>0.1605770277715811</v>
+        <v>0.1655338428734791</v>
       </c>
       <c r="S4">
-        <v>0.1581094792032325</v>
+        <v>0.1635724757083744</v>
       </c>
       <c r="T4">
-        <v>0.1557136046462922</v>
+        <v>0.1616921565934607</v>
       </c>
       <c r="U4">
-        <v>0.1533868213206063</v>
+        <v>0.1598889013733139</v>
       </c>
       <c r="V4">
-        <v>0.1511266570639977</v>
+        <v>0.1581589606499675</v>
       </c>
       <c r="W4">
-        <v>0.1489307449040153</v>
+        <v>0.1564988035710308</v>
       </c>
       <c r="X4">
-        <v>0.1467968179274534</v>
+        <v>0.154905102891267</v>
       </c>
       <c r="Y4">
-        <v>0.1447227044296876</v>
+        <v>0.1533747211964339</v>
       </c>
       <c r="Z4">
-        <v>0.1427063233270434</v>
+        <v>0.1519046981888214</v>
       </c>
       <c r="AA4">
-        <v>0.1407456798165107</v>
+        <v>0.1504922389434471</v>
       </c>
       <c r="AB4">
-        <v>0.1388388612681322</v>
+        <v>0.1491347030524241</v>
       </c>
       <c r="AC4">
-        <v>0.1369840333363406</v>
+        <v>0.1478295945826932</v>
       </c>
       <c r="AD4">
-        <v>0.1351794362773977</v>
+        <v>0.1465745527792195</v>
       </c>
       <c r="AE4">
-        <v>0.1334233814609105</v>
+        <v>0.1453673434519687</v>
       </c>
       <c r="AF4">
-        <v>0.1317142480641594</v>
+        <v>0.144205850990573</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.2340017226395489</v>
       </c>
       <c r="D5">
-        <v>0.232735474420659</v>
+        <v>0.232755967266229</v>
       </c>
       <c r="E5">
-        <v>0.2314936626458449</v>
+        <v>0.2315539214649986</v>
       </c>
       <c r="F5">
-        <v>0.230275723864091</v>
+        <v>0.2303938686347166</v>
       </c>
       <c r="G5">
-        <v>0.2290811102850748</v>
+        <v>0.2292741704593106</v>
       </c>
       <c r="H5">
-        <v>0.2279092892662221</v>
+        <v>0.2281932627116679</v>
       </c>
       <c r="I5">
-        <v>0.2267597428189665</v>
+        <v>0.2271496513177404</v>
       </c>
       <c r="J5">
-        <v>0.2256319671334105</v>
+        <v>0.2261419086626763</v>
       </c>
       <c r="K5">
-        <v>0.2245254721206222</v>
+        <v>0.2251686701221905</v>
       </c>
       <c r="L5">
-        <v>0.2234397809718369</v>
+        <v>0.2242286308036737</v>
       </c>
       <c r="M5">
-        <v>0.2223744297338649</v>
+        <v>0.2233205424827177</v>
       </c>
       <c r="N5">
-        <v>0.221328966900041</v>
+        <v>0.2224432107218144</v>
       </c>
       <c r="O5">
-        <v>0.2203029530160785</v>
+        <v>0.2215954921589786</v>
       </c>
       <c r="P5">
-        <v>0.2192959603002212</v>
+        <v>0.2207762919549557</v>
       </c>
       <c r="Q5">
-        <v>0.2183075722771135</v>
+        <v>0.2199845613885103</v>
       </c>
       <c r="R5">
-        <v>0.217337383424834</v>
+        <v>0.2192192955900661</v>
       </c>
       <c r="S5">
-        <v>0.2163849988345629</v>
+        <v>0.2184795314046698</v>
       </c>
       <c r="T5">
-        <v>0.2154500338823782</v>
+        <v>0.217764345375908</v>
       </c>
       <c r="U5">
-        <v>0.2145321139126962</v>
+        <v>0.2170728518430058</v>
       </c>
       <c r="V5">
-        <v>0.2136308739328935</v>
+        <v>0.2164042011438882</v>
       </c>
       <c r="W5">
-        <v>0.2127459583186697</v>
+        <v>0.215757577917497</v>
       </c>
       <c r="X5">
-        <v>0.2118770205297252</v>
+        <v>0.2151321994991278</v>
       </c>
       <c r="Y5">
-        <v>0.2110237228353533</v>
+        <v>0.2145273144029842</v>
       </c>
       <c r="Z5">
-        <v>0.2101857360495549</v>
+        <v>0.2139422008865519</v>
       </c>
       <c r="AA5">
-        <v>0.2093627392753097</v>
+        <v>0.2133761655917637</v>
       </c>
       <c r="AB5">
-        <v>0.2085544196576457</v>
+        <v>0.2128285422582712</v>
       </c>
       <c r="AC5">
-        <v>0.2077604721451703</v>
+        <v>0.2122986905044585</v>
       </c>
       <c r="AD5">
-        <v>0.2069805992597355</v>
+        <v>0.2117859946721234</v>
       </c>
       <c r="AE5">
-        <v>0.2062145108739284</v>
+        <v>0.21128986273103</v>
       </c>
       <c r="AF5">
-        <v>0.2054619239960866</v>
+        <v>0.2108097252397839</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -911,91 +911,91 @@
         <v>0.254309962413845</v>
       </c>
       <c r="D6">
-        <v>0.2508522969271577</v>
+        <v>0.2509080281078911</v>
       </c>
       <c r="E6">
-        <v>0.247489070391124</v>
+        <v>0.2476516383586563</v>
       </c>
       <c r="F6">
-        <v>0.2442170807426272</v>
+        <v>0.2445333255463135</v>
       </c>
       <c r="G6">
-        <v>0.2410332555271195</v>
+        <v>0.2415460819582489</v>
       </c>
       <c r="H6">
-        <v>0.2379346458647398</v>
+        <v>0.2386833266780127</v>
       </c>
       <c r="I6">
-        <v>0.2349184207313116</v>
+        <v>0.2359388751783509</v>
       </c>
       <c r="J6">
-        <v>0.2319818615361154</v>
+        <v>0.2333069113732839</v>
       </c>
       <c r="K6">
-        <v>0.2291223569794658</v>
+        <v>0.2307819619084686</v>
       </c>
       <c r="L6">
-        <v>0.2263373981741801</v>
+        <v>0.2283588724907611</v>
       </c>
       <c r="M6">
-        <v>0.223624574016007</v>
+        <v>0.2260327860772678</v>
       </c>
       <c r="N6">
-        <v>0.2209815667890077</v>
+        <v>0.2237991227615054</v>
       </c>
       <c r="O6">
-        <v>0.2184061479927351</v>
+        <v>0.2216535612098121</v>
       </c>
       <c r="P6">
-        <v>0.2158961743788642</v>
+        <v>0.2195920215150708</v>
       </c>
       <c r="Q6">
-        <v>0.2134495841856701</v>
+        <v>0.2176106493472907</v>
       </c>
       <c r="R6">
-        <v>0.2110643935594541</v>
+        <v>0.2157058012918106</v>
       </c>
       <c r="S6">
-        <v>0.208738693152672</v>
+        <v>0.2138740312759723</v>
       </c>
       <c r="T6">
-        <v>0.2064706448891275</v>
+        <v>0.2121120779941905</v>
       </c>
       <c r="U6">
-        <v>0.2042584788871725</v>
+        <v>0.2104168532495145</v>
       </c>
       <c r="V6">
-        <v>0.2021004905323845</v>
+        <v>0.2087854311371556</v>
       </c>
       <c r="W6">
-        <v>0.1999950376916999</v>
+        <v>0.2072150380020963</v>
       </c>
       <c r="X6">
-        <v>0.1979405380614468</v>
+        <v>0.2057030431089123</v>
       </c>
       <c r="Y6">
-        <v>0.1959354666421633</v>
+        <v>0.2042469499673616</v>
       </c>
       <c r="Z6">
-        <v>0.1939783533334994</v>
+        <v>0.2028443882622126</v>
       </c>
       <c r="AA6">
-        <v>0.1920677806428871</v>
+        <v>0.2014931063402294</v>
       </c>
       <c r="AB6">
-        <v>0.1902023815020256</v>
+        <v>0.2001909642112638</v>
       </c>
       <c r="AC6">
-        <v>0.1883808371855683</v>
+        <v>0.1989359270240601</v>
       </c>
       <c r="AD6">
-        <v>0.1866018753267188</v>
+        <v>0.1977260589807008</v>
       </c>
       <c r="AE6">
-        <v>0.1848642680247402</v>
+        <v>0.1965595176566307</v>
       </c>
       <c r="AF6">
-        <v>0.183166830039665</v>
+        <v>0.1954345486959439</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.2827013628419978</v>
       </c>
       <c r="D7">
-        <v>0.2360204630224487</v>
+        <v>0.2367126764642934</v>
       </c>
       <c r="E7">
-        <v>0.1975462133380655</v>
+        <v>0.1992637601689073</v>
       </c>
       <c r="F7">
-        <v>0.1657561664291226</v>
+        <v>0.1686082894939804</v>
       </c>
       <c r="G7">
-        <v>0.1394239763928326</v>
+        <v>0.1433857544386656</v>
       </c>
       <c r="H7">
-        <v>0.1175593257986106</v>
+        <v>0.1225305199598744</v>
       </c>
       <c r="I7">
-        <v>0.09936051504311302</v>
+        <v>0.1052035509885108</v>
       </c>
       <c r="J7">
-        <v>0.0841769502056044</v>
+        <v>0.09074086980595773</v>
       </c>
       <c r="K7">
-        <v>0.07147938854691972</v>
+        <v>0.07861443557027049</v>
       </c>
       <c r="L7">
-        <v>0.06083627910689236</v>
+        <v>0.0684022964659543</v>
       </c>
       <c r="M7">
-        <v>0.05189490403768093</v>
+        <v>0.0597657003299742</v>
       </c>
       <c r="N7">
-        <v>0.04436631044144856</v>
+        <v>0.0524314542279633</v>
       </c>
       <c r="O7">
-        <v>0.0380132422987807</v>
+        <v>0.04617826345644724</v>
       </c>
       <c r="P7">
-        <v>0.03264045255788796</v>
+        <v>0.04082610235999205</v>
       </c>
       <c r="Q7">
-        <v>0.02808690799980313</v>
+        <v>0.03622790609651104</v>
       </c>
       <c r="R7">
-        <v>0.02421950279304339</v>
+        <v>0.03226304747778826</v>
       </c>
       <c r="S7">
-        <v>0.02092797734810755</v>
+        <v>0.02883219300378817</v>
       </c>
       <c r="T7">
-        <v>0.01812080227129512</v>
+        <v>0.0258532292390701</v>
       </c>
       <c r="U7">
-        <v>0.01572183681216385</v>
+        <v>0.02325802344795883</v>
       </c>
       <c r="V7">
-        <v>0.01366761021348084</v>
+        <v>0.0209898372301642</v>
       </c>
       <c r="W7">
-        <v>0.01190510513348552</v>
+        <v>0.01900125339082535</v>
       </c>
       <c r="X7">
-        <v>0.01038994661801284</v>
+        <v>0.01725250781895381</v>
       </c>
       <c r="Y7">
-        <v>0.009084919350776257</v>
+        <v>0.01571014222608528</v>
       </c>
       <c r="Z7">
-        <v>0.007958751189208984</v>
+        <v>0.01434591205523554</v>
       </c>
       <c r="AA7">
-        <v>0.006985113146240262</v>
+        <v>0.01313589807853249</v>
       </c>
       <c r="AB7">
-        <v>0.006141795665419808</v>
+        <v>0.01205978118251046</v>
       </c>
       <c r="AC7">
-        <v>0.005410028774484551</v>
+        <v>0.01110024835942141</v>
       </c>
       <c r="AD7">
-        <v>0.004773919895889554</v>
+        <v>0.01024250455798088</v>
       </c>
       <c r="AE7">
-        <v>0.004219988060354151</v>
+        <v>0.009473870233796859</v>
       </c>
       <c r="AF7">
-        <v>0.003736777261817658</v>
+        <v>0.008783448509238748</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.3848931328742282</v>
       </c>
       <c r="D8">
-        <v>0.3357233385348377</v>
+        <v>0.3364687667974589</v>
       </c>
       <c r="E8">
-        <v>0.2933958216481422</v>
+        <v>0.2953256798368299</v>
       </c>
       <c r="F8">
-        <v>0.2568891149741201</v>
+        <v>0.2602297680729619</v>
       </c>
       <c r="G8">
-        <v>0.2253436868581279</v>
+        <v>0.2301765434940095</v>
       </c>
       <c r="H8">
-        <v>0.1980348815186534</v>
+        <v>0.2043450071227889</v>
       </c>
       <c r="I8">
-        <v>0.1743505982979504</v>
+        <v>0.1820614128020484</v>
       </c>
       <c r="J8">
-        <v>0.1537728440237559</v>
+        <v>0.1627706770491966</v>
       </c>
       <c r="K8">
-        <v>0.1358624570615423</v>
+        <v>0.1460137260030363</v>
       </c>
       <c r="L8">
-        <v>0.1202464337121749</v>
+        <v>0.1314094724056506</v>
       </c>
       <c r="M8">
-        <v>0.1066073939090066</v>
+        <v>0.1186404185495185</v>
       </c>
       <c r="N8">
-        <v>0.09467480889142743</v>
+        <v>0.1074411105516951</v>
       </c>
       <c r="O8">
-        <v>0.08421768279683456</v>
+        <v>0.09758884381209118</v>
       </c>
       <c r="P8">
-        <v>0.07503843618784757</v>
+        <v>0.08889615279424211</v>
       </c>
       <c r="Q8">
-        <v>0.06696778501478876</v>
+        <v>0.08120472049454054</v>
       </c>
       <c r="R8">
-        <v>0.05986044547511124</v>
+        <v>0.07438042169545432</v>
       </c>
       <c r="S8">
-        <v>0.0535915253240773</v>
+        <v>0.06830927497305291</v>
       </c>
       <c r="T8">
-        <v>0.04805348673617569</v>
+        <v>0.06289412568201477</v>
       </c>
       <c r="U8">
-        <v>0.04315358587353074</v>
+        <v>0.05805191896016696</v>
       </c>
       <c r="V8">
-        <v>0.03881171073607309</v>
+        <v>0.05371145059032339</v>
       </c>
       <c r="W8">
-        <v>0.03495855233230116</v>
+        <v>0.04981150616005595</v>
       </c>
       <c r="X8">
-        <v>0.0315340552700399</v>
+        <v>0.0462993167650434</v>
       </c>
       <c r="Y8">
-        <v>0.02848610296846071</v>
+        <v>0.04312927357603332</v>
       </c>
       <c r="Z8">
-        <v>0.02576940019543022</v>
+        <v>0.04026185475274034</v>
       </c>
       <c r="AA8">
-        <v>0.02334452182937278</v>
+        <v>0.03766272707177584</v>
       </c>
       <c r="AB8">
-        <v>0.02117710186871244</v>
+        <v>0.0353019917284383</v>
       </c>
       <c r="AC8">
-        <v>0.01923714095681874</v>
+        <v>0.03315354945300424</v>
       </c>
       <c r="AD8">
-        <v>0.01749841421274107</v>
+        <v>0.03119456464628144</v>
       </c>
       <c r="AE8">
-        <v>0.01593796408554922</v>
+        <v>0.02940501191730281</v>
       </c>
       <c r="AF8">
-        <v>0.01453566538712016</v>
+        <v>0.0277672913789817</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2300599835057191</v>
+        <v>0.230059983505719</v>
       </c>
       <c r="C9">
-        <v>0.2258272331623234</v>
+        <v>0.2258272331623233</v>
       </c>
       <c r="D9">
-        <v>0.2217299962399553</v>
+        <v>0.2217958858089483</v>
       </c>
       <c r="E9">
-        <v>0.217762910169523</v>
+        <v>0.2179542506095806</v>
       </c>
       <c r="F9">
-        <v>0.2139208627568401</v>
+        <v>0.2142914505790406</v>
       </c>
       <c r="G9">
-        <v>0.2101989788665327</v>
+        <v>0.2107973568947449</v>
       </c>
       <c r="H9">
-        <v>0.206592607894297</v>
+        <v>0.2074625291800313</v>
       </c>
       <c r="I9">
-        <v>0.2030973119763702</v>
+        <v>0.2042781611595758</v>
       </c>
       <c r="J9">
-        <v>0.1997088548886657</v>
+        <v>0.201236031152984</v>
       </c>
       <c r="K9">
-        <v>0.1964231915913495</v>
+        <v>0.1983284569304673</v>
       </c>
       <c r="L9">
-        <v>0.1932364583777042</v>
+        <v>0.1955482545055844</v>
       </c>
       <c r="M9">
-        <v>0.1901449635889726</v>
+        <v>0.1928887004851867</v>
       </c>
       <c r="N9">
-        <v>0.1871451788595049</v>
+        <v>0.1903434976366917</v>
       </c>
       <c r="O9">
-        <v>0.1842337308589706</v>
+        <v>0.1879067433682452</v>
       </c>
       <c r="P9">
-        <v>0.1814073935006573</v>
+        <v>0.1855729008487802</v>
       </c>
       <c r="Q9">
-        <v>0.1786630805869706</v>
+        <v>0.1833367725229226</v>
       </c>
       <c r="R9">
-        <v>0.1759978388651934</v>
+        <v>0.1811934758005404</v>
       </c>
       <c r="S9">
-        <v>0.173408841468363</v>
+        <v>0.1791384207228603</v>
       </c>
       <c r="T9">
-        <v>0.1708933817177976</v>
+        <v>0.177167289426797</v>
       </c>
       <c r="U9">
-        <v>0.1684488672653554</v>
+        <v>0.17527601724674</v>
       </c>
       <c r="V9">
-        <v>0.1660728145549529</v>
+        <v>0.1734607753087598</v>
       </c>
       <c r="W9">
-        <v>0.1637628435842074</v>
+        <v>0.1717179544862563</v>
       </c>
       <c r="X9">
-        <v>0.1615166729483162</v>
+        <v>0.1700441505986497</v>
       </c>
       <c r="Y9">
-        <v>0.1593321151494416</v>
+        <v>0.1684361507459891</v>
       </c>
       <c r="Z9">
-        <v>0.1572070721559499</v>
+        <v>0.1668909206824669</v>
       </c>
       <c r="AA9">
-        <v>0.1551395311968546</v>
+        <v>0.1654055931409003</v>
       </c>
       <c r="AB9">
-        <v>0.1531275607777488</v>
+        <v>0.1639774570284016</v>
       </c>
       <c r="AC9">
-        <v>0.1511693069053799</v>
+        <v>0.1626039474207933</v>
       </c>
       <c r="AD9">
-        <v>0.1492629895088317</v>
+        <v>0.161282636289931</v>
       </c>
       <c r="AE9">
-        <v>0.1474068990460334</v>
+        <v>0.160011223904048</v>
       </c>
       <c r="AF9">
-        <v>0.1455993932850186</v>
+        <v>0.1587875308466057</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>0.8090798252082536</v>
       </c>
       <c r="C10">
-        <v>0.835260250036194</v>
+        <v>0.8352602500361943</v>
       </c>
       <c r="D10">
-        <v>0.8619034707821098</v>
+        <v>0.8614644149822877</v>
       </c>
       <c r="E10">
-        <v>0.8890056679175241</v>
+        <v>0.8876676754575037</v>
       </c>
       <c r="F10">
-        <v>0.9165627171156105</v>
+        <v>0.9138461282369738</v>
       </c>
       <c r="G10">
-        <v>0.9445701956471275</v>
+        <v>0.9399766533093459</v>
       </c>
       <c r="H10">
-        <v>0.9730233891228741</v>
+        <v>0.9660369497609768</v>
       </c>
       <c r="I10">
-        <v>1.001917298561833</v>
+        <v>0.9920055659250179</v>
       </c>
       <c r="J10">
-        <v>1.031246647763985</v>
+        <v>1.017861924047411</v>
       </c>
       <c r="K10">
-        <v>1.061005890966671</v>
+        <v>1.043586339739307</v>
       </c>
       <c r="L10">
-        <v>1.091189220763344</v>
+        <v>1.069160036498794</v>
       </c>
       <c r="M10">
-        <v>1.121790576263569</v>
+        <v>1.094565155594373</v>
       </c>
       <c r="N10">
-        <v>1.15280365147321</v>
+        <v>1.119784761608714</v>
       </c>
       <c r="O10">
-        <v>1.184221903873898</v>
+        <v>1.144802843944175</v>
       </c>
       <c r="P10">
-        <v>1.216038563181058</v>
+        <v>1.169604314591729</v>
       </c>
       <c r="Q10">
-        <v>1.248246640260015</v>
+        <v>1.194175002462582</v>
       </c>
       <c r="R10">
-        <v>1.280838936180025</v>
+        <v>1.218501644577269</v>
       </c>
       <c r="S10">
-        <v>1.313808051386374</v>
+        <v>1.242571874400608</v>
       </c>
       <c r="T10">
-        <v>1.347146394971104</v>
+        <v>1.266374207602898</v>
       </c>
       <c r="U10">
-        <v>1.380846194023335</v>
+        <v>1.289898025518364</v>
       </c>
       <c r="V10">
-        <v>1.414899503040616</v>
+        <v>1.31313355656144</v>
       </c>
       <c r="W10">
-        <v>1.4492982133832</v>
+        <v>1.336071855850119</v>
       </c>
       <c r="X10">
-        <v>1.484034062753702</v>
+        <v>1.358704783273567</v>
       </c>
       <c r="Y10">
-        <v>1.519098644685098</v>
+        <v>1.381024980228745</v>
       </c>
       <c r="Z10">
-        <v>1.55448341802062</v>
+        <v>1.403025845237883</v>
       </c>
       <c r="AA10">
-        <v>1.590179716369672</v>
+        <v>1.424701508645688</v>
       </c>
       <c r="AB10">
-        <v>1.626178757524519</v>
+        <v>1.446046806582084</v>
       </c>
       <c r="AC10">
-        <v>1.662471652823077</v>
+        <v>1.46705725436329</v>
       </c>
       <c r="AD10">
-        <v>1.699049416443824</v>
+        <v>1.487729019491247</v>
       </c>
       <c r="AE10">
-        <v>1.735902974619434</v>
+        <v>1.508058894398796</v>
       </c>
       <c r="AF10">
-        <v>1.773023174756426</v>
+        <v>1.52804426907579</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1401,91 +1401,91 @@
         <v>0.2960223741642076</v>
       </c>
       <c r="D11">
-        <v>0.2946703180548984</v>
+        <v>0.2946922087454434</v>
       </c>
       <c r="E11">
-        <v>0.2933432371791325</v>
+        <v>0.2934076593169912</v>
       </c>
       <c r="F11">
-        <v>0.2920405872924384</v>
+        <v>0.2921669964467957</v>
       </c>
       <c r="G11">
-        <v>0.290761838390181</v>
+        <v>0.2909685660560355</v>
       </c>
       <c r="H11">
-        <v>0.2895064742673168</v>
+        <v>0.2898107855738477</v>
       </c>
       <c r="I11">
-        <v>0.2882739920937658</v>
+        <v>0.2886921403196167</v>
       </c>
       <c r="J11">
-        <v>0.2870639020047776</v>
+        <v>0.2876111800975947</v>
       </c>
       <c r="K11">
-        <v>0.2858757267057017</v>
+        <v>0.2865665159897461</v>
       </c>
       <c r="L11">
-        <v>0.2847090010905926</v>
+        <v>0.285556817333746</v>
       </c>
       <c r="M11">
-        <v>0.2835632718741082</v>
+        <v>0.2845808088740179</v>
       </c>
       <c r="N11">
-        <v>0.2824380972361825</v>
+        <v>0.2836372680745711</v>
       </c>
       <c r="O11">
-        <v>0.2813330464789749</v>
+        <v>0.2827250225832112</v>
       </c>
       <c r="P11">
-        <v>0.2802476996956222</v>
+        <v>0.2818429478374372</v>
       </c>
       <c r="Q11">
-        <v>0.2791816474503367</v>
+        <v>0.2809899648030298</v>
       </c>
       <c r="R11">
-        <v>0.2781344904694147</v>
+        <v>0.2801650378369667</v>
       </c>
       <c r="S11">
-        <v>0.2771058393427394</v>
+        <v>0.2793671726668883</v>
       </c>
       <c r="T11">
-        <v>0.2760953142353768</v>
+        <v>0.2785954144798752</v>
       </c>
       <c r="U11">
-        <v>0.2751025446088823</v>
+        <v>0.2778488461137995</v>
       </c>
       <c r="V11">
-        <v>0.2741271689519514</v>
+        <v>0.2771265863449747</v>
       </c>
       <c r="W11">
-        <v>0.273168834520062</v>
+        <v>0.2764277882662539</v>
       </c>
       <c r="X11">
-        <v>0.2722271970837721</v>
+        <v>0.2757516377501237</v>
       </c>
       <c r="Y11">
-        <v>0.2713019206853491</v>
+        <v>0.2750973519917059</v>
       </c>
       <c r="Z11">
-        <v>0.2703926774034215</v>
+        <v>0.274464178126919</v>
       </c>
       <c r="AA11">
-        <v>0.2694991471253553</v>
+        <v>0.2738513919213674</v>
       </c>
       <c r="AB11">
-        <v>0.2686210173270706</v>
+        <v>0.2732582965258146</v>
       </c>
       <c r="AC11">
-        <v>0.2677579828600246</v>
+        <v>0.2726842212943712</v>
       </c>
       <c r="AD11">
-        <v>0.2669097457450993</v>
+        <v>0.2721285206617779</v>
       </c>
       <c r="AE11">
-        <v>0.266076014973142</v>
+        <v>0.2715905730763974</v>
       </c>
       <c r="AF11">
-        <v>0.2652565063119162</v>
+        <v>0.2710697799857467</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1499,91 +1499,91 @@
         <v>0.1953978200294889</v>
       </c>
       <c r="D12">
-        <v>0.1889760310306021</v>
+        <v>0.1890785348751235</v>
       </c>
       <c r="E12">
-        <v>0.1828508209983825</v>
+        <v>0.1831441568462352</v>
       </c>
       <c r="F12">
-        <v>0.1770057779546285</v>
+        <v>0.1775658239099948</v>
       </c>
       <c r="G12">
-        <v>0.1714255313431284</v>
+        <v>0.1723172301348833</v>
       </c>
       <c r="H12">
-        <v>0.1660956782862903</v>
+        <v>0.1673743677780991</v>
       </c>
       <c r="I12">
-        <v>0.161002715565793</v>
+        <v>0.1627152983081788</v>
       </c>
       <c r="J12">
-        <v>0.1561339768463623</v>
+        <v>0.1583199488123426</v>
       </c>
       <c r="K12">
-        <v>0.1514775747050823</v>
+        <v>0.1541699307088914</v>
       </c>
       <c r="L12">
-        <v>0.1470223470678251</v>
+        <v>0.1502483780889553</v>
       </c>
       <c r="M12">
-        <v>0.1427578076898071</v>
+        <v>0.1465398033590884</v>
       </c>
       <c r="N12">
-        <v>0.1386741003493635</v>
+        <v>0.1430299681551345</v>
       </c>
       <c r="O12">
-        <v>0.1347619564530902</v>
+        <v>0.1397057677555633</v>
       </c>
       <c r="P12">
-        <v>0.1310126557768442</v>
+        <v>0.1365551274451482</v>
       </c>
       <c r="Q12">
-        <v>0.1274179900909849</v>
+        <v>0.1335669094724997</v>
       </c>
       <c r="R12">
-        <v>0.1239702294399267</v>
+        <v>0.130730829411896</v>
       </c>
       <c r="S12">
-        <v>0.1206620908657621</v>
+        <v>0.128037380884732</v>
       </c>
       <c r="T12">
-        <v>0.1174867093836126</v>
+        <v>0.1254777677218252</v>
       </c>
       <c r="U12">
-        <v>0.114437611032634</v>
+        <v>0.1230438427574315</v>
       </c>
       <c r="V12">
-        <v>0.1115086878414068</v>
+        <v>0.120728052541381</v>
       </c>
       <c r="W12">
-        <v>0.1086941745599151</v>
+        <v>0.1185233873391633</v>
       </c>
       <c r="X12">
-        <v>0.1059886270225959</v>
+        <v>0.1164233358627241</v>
       </c>
       <c r="Y12">
-        <v>0.1033869020181225</v>
+        <v>0.1144218442385833</v>
       </c>
       <c r="Z12">
-        <v>0.1008841385517877</v>
+        <v>0.1125132787758583</v>
       </c>
       <c r="AA12">
-        <v>0.09847574039566283</v>
+        <v>0.1106923921459113</v>
       </c>
       <c r="AB12">
-        <v>0.09615735983019869</v>
+        <v>0.1089542926285308</v>
       </c>
       <c r="AC12">
-        <v>0.09392488248870265</v>
+        <v>0.1072944161175695</v>
       </c>
       <c r="AD12">
-        <v>0.09177441322321424</v>
+        <v>0.1057085006124619</v>
       </c>
       <c r="AE12">
-        <v>0.08970226291678998</v>
+        <v>0.1041925629516033</v>
       </c>
       <c r="AF12">
-        <v>0.0877049361731419</v>
+        <v>0.1027428775696864</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4269937661984927</v>
+        <v>0.4269937661984929</v>
       </c>
       <c r="C13">
         <v>0.358273811834202</v>
       </c>
       <c r="D13">
-        <v>0.3013529760100829</v>
+        <v>0.3022002283891199</v>
       </c>
       <c r="E13">
-        <v>0.2540901672570626</v>
+        <v>0.2562076661096699</v>
       </c>
       <c r="F13">
-        <v>0.2147521202339953</v>
+        <v>0.2182933634393183</v>
       </c>
       <c r="G13">
-        <v>0.1819322820342512</v>
+        <v>0.1868854507047763</v>
       </c>
       <c r="H13">
-        <v>0.1544864741973822</v>
+        <v>0.1607438637974716</v>
       </c>
       <c r="I13">
-        <v>0.1314817349865714</v>
+        <v>0.1388853849536364</v>
       </c>
       <c r="J13">
-        <v>0.1121555427771696</v>
+        <v>0.1205266335154099</v>
       </c>
       <c r="K13">
-        <v>0.09588323589348645</v>
+        <v>0.1050404832781259</v>
       </c>
       <c r="L13">
-        <v>0.08215191962435324</v>
+        <v>0.09192257585204218</v>
       </c>
       <c r="M13">
-        <v>0.07053951984134442</v>
+        <v>0.08076546462767493</v>
       </c>
       <c r="N13">
-        <v>0.06069792928508586</v>
+        <v>0.07123855484217399</v>
       </c>
       <c r="O13">
-        <v>0.05233941597369472</v>
+        <v>0.06307246776017723</v>
       </c>
       <c r="P13">
-        <v>0.04522563769635694</v>
+        <v>0.05604679780085235</v>
       </c>
       <c r="Q13">
-        <v>0.03915874320079889</v>
+        <v>0.04998048384933351</v>
       </c>
       <c r="R13">
-        <v>0.03397414792995097</v>
+        <v>0.04472420383907819</v>
       </c>
       <c r="S13">
-        <v>0.02953465652891402</v>
+        <v>0.04015434216447814</v>
       </c>
       <c r="T13">
-        <v>0.02572567086041882</v>
+        <v>0.03616818502034769</v>
       </c>
       <c r="U13">
-        <v>0.02245127482885625</v>
+        <v>0.03268007841757068</v>
       </c>
       <c r="V13">
-        <v>0.01963102893923708</v>
+        <v>0.02961834400912213</v>
       </c>
       <c r="W13">
-        <v>0.0171973405552428</v>
+        <v>0.02692279383820613</v>
       </c>
       <c r="X13">
-        <v>0.01509330209836997</v>
+        <v>0.02454272027687686</v>
       </c>
       <c r="Y13">
-        <v>0.01327091037570837</v>
+        <v>0.02243526441771711</v>
       </c>
       <c r="Z13">
-        <v>0.01168959695424789</v>
+        <v>0.02056408699220694</v>
       </c>
       <c r="AA13">
-        <v>0.01031501289079833</v>
+        <v>0.018898281997265</v>
       </c>
       <c r="AB13">
-        <v>0.009118021867054881</v>
+        <v>0.01741148572732634</v>
       </c>
       <c r="AC13">
-        <v>0.008073864411189806</v>
+        <v>0.01608114367106904</v>
       </c>
       <c r="AD13">
-        <v>0.007161462838433541</v>
+        <v>0.01488790537376069</v>
       </c>
       <c r="AE13">
-        <v>0.006362842151749415</v>
+        <v>0.01381512337017844</v>
       </c>
       <c r="AF13">
-        <v>0.005662646677990429</v>
+        <v>0.01284843702689906</v>
       </c>
     </row>
   </sheetData>
